--- a/StatePops.xlsx
+++ b/StatePops.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nathan.brunner\Desktop\DS\Covid\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nathan.brunner\Desktop\DS\Covid\Covid-Data-Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D3C1700-EADD-44F4-8DAF-8F008272A73F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>California</t>
   </si>
@@ -135,12 +136,18 @@
   </si>
   <si>
     <t>AZ</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>FL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -486,11 +493,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -696,8 +703,19 @@
         <v>5822434</v>
       </c>
     </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="1">
+        <v>21480000</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A3:A18">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:A18">
     <sortCondition ref="A3"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
